--- a/ResultCharts.xlsx
+++ b/ResultCharts.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>Method</t>
   </si>
@@ -44,16 +44,31 @@
     <t>Geo-Cardinality</t>
   </si>
   <si>
-    <t>Sus-Cardinality</t>
-  </si>
-  <si>
     <t>Ari-Density</t>
   </si>
   <si>
     <t>Geo-Density</t>
   </si>
   <si>
-    <t>Sus-Density</t>
+    <t>btree</t>
+  </si>
+  <si>
+    <t>original</t>
+  </si>
+  <si>
+    <t>gist</t>
+  </si>
+  <si>
+    <t>gin</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>Susp-Cardinality</t>
+  </si>
+  <si>
+    <t>Susp-Density</t>
   </si>
 </sst>
 </file>
@@ -121,6 +136,64 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Copy</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>Method</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>vs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>Marker</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>Method</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -243,9 +316,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:f>Sheet1!$B$1:$H$1</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Ari-Cardinality</c:v>
                 </c:pt>
@@ -253,7 +326,7 @@
                   <c:v>Geo-Cardinality</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Sus-Cardinality</c:v>
+                  <c:v>Susp-Cardinality</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Ari-Density</c:v>
@@ -262,17 +335,20 @@
                   <c:v>Geo-Density</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Sus-Density</c:v>
+                  <c:v>Susp-Density</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Avg</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$G$2</c:f>
+              <c:f>Sheet1!$B$2:$H$2</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>534.468036175</c:v>
                 </c:pt>
@@ -290,6 +366,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>473.748892784</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>511.6366174221666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -380,9 +459,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:f>Sheet1!$B$1:$H$1</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Ari-Cardinality</c:v>
                 </c:pt>
@@ -390,7 +469,7 @@
                   <c:v>Geo-Cardinality</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Sus-Cardinality</c:v>
+                  <c:v>Susp-Cardinality</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Ari-Density</c:v>
@@ -399,17 +478,20 @@
                   <c:v>Geo-Density</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Sus-Density</c:v>
+                  <c:v>Susp-Density</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Avg</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$G$3</c:f>
+              <c:f>Sheet1!$B$3:$H$3</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>491.899703979</c:v>
                 </c:pt>
@@ -427,6 +509,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>515.461890936</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>509.3255423306666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -630,7 +715,902 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Indexing</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>Options</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>original</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$6:$H$6</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Ari-Cardinality</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Geo-Cardinality</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Susp-Cardinality</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ari-Density</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Geo-Density</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Susp-Density</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>534.468036175</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>458.317095041</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>513.257727861</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>532.645810843</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>557.382141829</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>473.748892784</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>511.6366174221666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>btree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$6:$H$6</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Ari-Cardinality</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Geo-Cardinality</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Susp-Cardinality</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ari-Density</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Geo-Density</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Susp-Density</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$8:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>413.677556038</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>486.486675024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>434.57072401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>478.142300129</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>464.279875994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>487.415059805</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>460.7620318333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gist</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$6:$H$6</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Ari-Cardinality</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Geo-Cardinality</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Susp-Cardinality</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ari-Density</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Geo-Density</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Susp-Density</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$9:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>456.910819054</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>418.755778074</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>621.0169260500001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>566.456278086</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>532.857440948</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>508.112966061</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>517.3517013788333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$6:$H$6</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Ari-Cardinality</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Geo-Cardinality</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Susp-Cardinality</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ari-Density</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Geo-Density</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Susp-Density</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>529.931929111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>411.238831997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>467.898030996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>522.268168211</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>516.421762943</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>469.866348028</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>486.2708452143333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-1146438624"/>
+        <c:axId val="-1165404448"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1146438624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1165404448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1165404448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1146438624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1173,19 +2153,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1200,6 +2683,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1471,10 +2984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1487,7 +3000,7 @@
     <col min="7" max="7" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1498,19 +3011,22 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
       <c r="G1" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1532,8 +3048,12 @@
       <c r="G2" s="1">
         <v>473.74889278400002</v>
       </c>
+      <c r="H2" s="1">
+        <f>AVERAGE(B2:G2)</f>
+        <v>511.63661742216664</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1555,78 +3075,211 @@
       <c r="G3" s="1">
         <v>515.46189093600003</v>
       </c>
+      <c r="H3" s="1">
+        <f>AVERAGE(B3:G3)</f>
+        <v>509.32554233066668</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>534.46803617499995</v>
+      </c>
+      <c r="C7" s="1">
+        <v>458.31709504100002</v>
+      </c>
+      <c r="D7" s="1">
+        <v>513.25772786100003</v>
+      </c>
+      <c r="E7" s="1">
+        <v>532.64581084300005</v>
+      </c>
+      <c r="F7" s="1">
+        <v>557.38214182900003</v>
+      </c>
+      <c r="G7" s="1">
+        <v>473.74889278400002</v>
+      </c>
+      <c r="H7" s="1">
+        <f>AVERAGE(B7:G7)</f>
+        <v>511.63661742216664</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>413.67755603799998</v>
+      </c>
+      <c r="C8" s="1">
+        <v>486.48667502400002</v>
+      </c>
+      <c r="D8" s="1">
+        <v>434.57072400999999</v>
+      </c>
+      <c r="E8" s="1">
+        <v>478.14230012899998</v>
+      </c>
+      <c r="F8" s="1">
+        <v>464.27987599400001</v>
+      </c>
+      <c r="G8" s="1">
+        <v>487.415059805</v>
+      </c>
+      <c r="H8" s="1">
+        <f>AVERAGE(B8:G8)</f>
+        <v>460.76203183333337</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>456.910819054</v>
+      </c>
+      <c r="C9" s="1">
+        <v>418.75577807399998</v>
+      </c>
+      <c r="D9" s="1">
+        <v>621.01692605000005</v>
+      </c>
+      <c r="E9" s="1">
+        <v>566.456278086</v>
+      </c>
+      <c r="F9" s="1">
+        <v>532.85744094799998</v>
+      </c>
+      <c r="G9" s="1">
+        <v>508.11296606100001</v>
+      </c>
+      <c r="H9" s="1">
+        <f>AVERAGE(B9:G9)</f>
+        <v>517.35170137883335</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>529.93192911100004</v>
+      </c>
+      <c r="C10" s="1">
+        <v>411.23883199699998</v>
+      </c>
+      <c r="D10" s="1">
+        <v>467.89803099599999</v>
+      </c>
+      <c r="E10" s="1">
+        <v>522.26816821099999</v>
+      </c>
+      <c r="F10" s="1">
+        <v>516.42176294299998</v>
+      </c>
+      <c r="G10" s="1">
+        <v>469.866348028</v>
+      </c>
+      <c r="H10" s="1">
+        <f>AVERAGE(B10:G10)</f>
+        <v>486.27084521433335</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ResultCharts.xlsx
+++ b/ResultCharts.xlsx
@@ -2986,7 +2986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
